--- a/artfynd/A 10619-2023.xlsx
+++ b/artfynd/A 10619-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104305615</v>
+        <v>107240206</v>
       </c>
       <c r="B2" t="n">
-        <v>56395</v>
+        <v>73698</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,45 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>1467</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Konäs, Jmt</t>
+          <t>Konäsån, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>404450.4798027966</v>
+        <v>404510.0404779729</v>
       </c>
       <c r="R2" t="n">
-        <v>7052057.091666414</v>
+        <v>7052405.497242426</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -758,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -768,17 +760,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104396513</v>
+        <v>107240205</v>
       </c>
       <c r="B3" t="n">
-        <v>56395</v>
+        <v>73691</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,49 +804,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6486</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Konäs, Jmt</t>
+          <t>Konäsån, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>404410.1670524143</v>
+        <v>404507.1519244571</v>
       </c>
       <c r="R3" t="n">
-        <v>7052081.474972909</v>
+        <v>7052398.455826334</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -883,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-10-30</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -893,17 +872,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-10-30</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -918,22 +892,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104396512</v>
+        <v>107240202</v>
       </c>
       <c r="B4" t="n">
-        <v>56395</v>
+        <v>73693</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -946,45 +920,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Konäs, Jmt</t>
+          <t>Konäsån, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>404448.9810117018</v>
+        <v>404516.1063336513</v>
       </c>
       <c r="R4" t="n">
-        <v>7052111.050208413</v>
+        <v>7052399.522973455</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1008,7 +974,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-10-30</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1018,17 +984,12 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-10-30</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1043,22 +1004,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104396511</v>
+        <v>107240201</v>
       </c>
       <c r="B5" t="n">
-        <v>56395</v>
+        <v>73507</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1067,49 +1028,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6428</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Konäs, Jmt</t>
+          <t>Konäsån, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>404459.8666546694</v>
+        <v>404549.7985099602</v>
       </c>
       <c r="R5" t="n">
-        <v>7052116.960384977</v>
+        <v>7052422.121992063</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1133,7 +1086,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-10-30</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1143,17 +1096,12 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-10-30</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1168,22 +1116,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>107240206</v>
+        <v>107240204</v>
       </c>
       <c r="B6" t="n">
-        <v>73698</v>
+        <v>89410</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1196,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1467</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1220,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>404510.0404779729</v>
+        <v>404514.3234876283</v>
       </c>
       <c r="R6" t="n">
-        <v>7052405.497242426</v>
+        <v>7052399.576612793</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1292,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>107240199</v>
+        <v>104396512</v>
       </c>
       <c r="B7" t="n">
-        <v>78603</v>
+        <v>56395</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1304,41 +1252,49 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6464</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Konäsån, Jmt</t>
+          <t>Konäs, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>404600.7756870117</v>
+        <v>404448.9810117018</v>
       </c>
       <c r="R7" t="n">
-        <v>7052262.87229334</v>
+        <v>7052111.050208413</v>
       </c>
       <c r="S7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1362,7 +1318,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-10-30</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1372,12 +1328,17 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-10-30</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1392,22 +1353,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107240205</v>
+        <v>104396511</v>
       </c>
       <c r="B8" t="n">
-        <v>73691</v>
+        <v>56395</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1416,41 +1377,49 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6486</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Konäsån, Jmt</t>
+          <t>Konäs, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>404507.1519244571</v>
+        <v>404459.8666546694</v>
       </c>
       <c r="R8" t="n">
-        <v>7052398.455826334</v>
+        <v>7052116.960384977</v>
       </c>
       <c r="S8" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1474,7 +1443,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-10-30</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1484,12 +1453,17 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-10-30</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1504,22 +1478,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>107240151</v>
+        <v>107240199</v>
       </c>
       <c r="B9" t="n">
-        <v>56395</v>
+        <v>78603</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1528,43 +1502,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6464</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Konäsån, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>404450.4396007094</v>
+        <v>404600.7756870117</v>
       </c>
       <c r="R9" t="n">
-        <v>7052055.756168589</v>
+        <v>7052262.87229334</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1607,11 +1576,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1638,10 +1602,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>107240202</v>
+        <v>107240200</v>
       </c>
       <c r="B10" t="n">
-        <v>73693</v>
+        <v>77590</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1654,21 +1618,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6440</v>
+        <v>283</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1678,10 +1642,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>404516.1063336513</v>
+        <v>404591.3493727507</v>
       </c>
       <c r="R10" t="n">
-        <v>7052399.522973455</v>
+        <v>7052305.481577516</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1750,10 +1714,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>107240201</v>
+        <v>104305615</v>
       </c>
       <c r="B11" t="n">
-        <v>73507</v>
+        <v>56395</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1762,41 +1726,49 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6428</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Konäsån, Jmt</t>
+          <t>Konäs, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>404549.7985099602</v>
+        <v>404450.4798027966</v>
       </c>
       <c r="R11" t="n">
-        <v>7052422.121992063</v>
+        <v>7052057.091666414</v>
       </c>
       <c r="S11" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1820,7 +1792,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1830,12 +1802,17 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1850,22 +1827,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>107240204</v>
+        <v>104396513</v>
       </c>
       <c r="B12" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1878,37 +1855,45 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Konäsån, Jmt</t>
+          <t>Konäs, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>404514.3234876283</v>
+        <v>404410.1670524143</v>
       </c>
       <c r="R12" t="n">
-        <v>7052399.576612793</v>
+        <v>7052081.474972909</v>
       </c>
       <c r="S12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1932,7 +1917,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-10-30</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1942,12 +1927,17 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-10-30</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1962,22 +1952,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>107240200</v>
+        <v>107240151</v>
       </c>
       <c r="B13" t="n">
-        <v>77590</v>
+        <v>56395</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1990,34 +1980,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>283</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Konäsån, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>404591.3493727507</v>
+        <v>404450.4396007094</v>
       </c>
       <c r="R13" t="n">
-        <v>7052305.481577516</v>
+        <v>7052055.756168589</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2060,6 +2055,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2824,7 +2824,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>107312727</v>
+        <v>107312732</v>
       </c>
       <c r="B20" t="n">
         <v>56395</v>
@@ -2862,7 +2862,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -2872,10 +2872,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>404816.6062824384</v>
+        <v>404556.6122918456</v>
       </c>
       <c r="R20" t="n">
-        <v>7052021.585110929</v>
+        <v>7051951.416123887</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>107312732</v>
+        <v>107312745</v>
       </c>
       <c r="B21" t="n">
         <v>56395</v>
@@ -2985,11 +2985,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2997,10 +2993,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>404556.6122918456</v>
+        <v>404586.4633316425</v>
       </c>
       <c r="R21" t="n">
-        <v>7051951.416123887</v>
+        <v>7052053.892247804</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3074,7 +3070,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>107312739</v>
+        <v>107312727</v>
       </c>
       <c r="B22" t="n">
         <v>56395</v>
@@ -3112,7 +3108,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -3122,10 +3118,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>404681.0622223797</v>
+        <v>404816.6062824384</v>
       </c>
       <c r="R22" t="n">
-        <v>7052084.021887345</v>
+        <v>7052021.585110929</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3199,7 +3195,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>107312735</v>
+        <v>107312739</v>
       </c>
       <c r="B23" t="n">
         <v>56395</v>
@@ -3237,7 +3233,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -3247,10 +3243,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>404696.918969274</v>
+        <v>404681.0622223797</v>
       </c>
       <c r="R23" t="n">
-        <v>7052002.897780768</v>
+        <v>7052084.021887345</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3324,7 +3320,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>107312745</v>
+        <v>107312735</v>
       </c>
       <c r="B24" t="n">
         <v>56395</v>
@@ -3360,7 +3356,11 @@
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>404586.4633316425</v>
+        <v>404696.918969274</v>
       </c>
       <c r="R24" t="n">
-        <v>7052053.892247804</v>
+        <v>7052002.897780768</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>

--- a/artfynd/A 10619-2023.xlsx
+++ b/artfynd/A 10619-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>107240206</v>
+        <v>104305615</v>
       </c>
       <c r="B2" t="n">
-        <v>73698</v>
+        <v>56395</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,45 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1467</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Konäsån, Jmt</t>
+          <t>Konäs, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>404510.0404779729</v>
+        <v>404450.4798027966</v>
       </c>
       <c r="R2" t="n">
-        <v>7052405.497242426</v>
+        <v>7052057.091666414</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +758,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,12 +768,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,22 +793,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>107240205</v>
+        <v>104396513</v>
       </c>
       <c r="B3" t="n">
-        <v>73691</v>
+        <v>56395</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,41 +817,49 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6486</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Konäsån, Jmt</t>
+          <t>Konäs, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>404507.1519244571</v>
+        <v>404410.1670524143</v>
       </c>
       <c r="R3" t="n">
-        <v>7052398.455826334</v>
+        <v>7052081.474972909</v>
       </c>
       <c r="S3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,7 +883,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-10-30</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,12 +893,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-10-30</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -892,22 +918,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>107240202</v>
+        <v>104396512</v>
       </c>
       <c r="B4" t="n">
-        <v>73693</v>
+        <v>56395</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,37 +946,45 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Konäsån, Jmt</t>
+          <t>Konäs, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>404516.1063336513</v>
+        <v>404448.9810117018</v>
       </c>
       <c r="R4" t="n">
-        <v>7052399.522973455</v>
+        <v>7052111.050208413</v>
       </c>
       <c r="S4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -974,7 +1008,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-10-30</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -984,12 +1018,17 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-10-30</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1004,22 +1043,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>107240201</v>
+        <v>104396511</v>
       </c>
       <c r="B5" t="n">
-        <v>73507</v>
+        <v>56395</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,41 +1067,49 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6428</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rostfläck</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Arthonia vinosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Leight.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Konäsån, Jmt</t>
+          <t>Konäs, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>404549.7985099602</v>
+        <v>404459.8666546694</v>
       </c>
       <c r="R5" t="n">
-        <v>7052422.121992063</v>
+        <v>7052116.960384977</v>
       </c>
       <c r="S5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1086,7 +1133,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-10-30</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1096,12 +1143,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-10-30</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1116,22 +1168,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Jesper Wadstein</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>107240204</v>
+        <v>107240206</v>
       </c>
       <c r="B6" t="n">
-        <v>89410</v>
+        <v>73698</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1196,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>1467</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1220,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>404514.3234876283</v>
+        <v>404510.0404779729</v>
       </c>
       <c r="R6" t="n">
-        <v>7052399.576612793</v>
+        <v>7052405.497242426</v>
       </c>
       <c r="S6" t="n">
         <v>20</v>
@@ -1240,10 +1292,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104396512</v>
+        <v>107240199</v>
       </c>
       <c r="B7" t="n">
-        <v>56395</v>
+        <v>78603</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,49 +1304,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6464</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Konäs, Jmt</t>
+          <t>Konäsån, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>404448.9810117018</v>
+        <v>404600.7756870117</v>
       </c>
       <c r="R7" t="n">
-        <v>7052111.050208413</v>
+        <v>7052262.87229334</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1318,7 +1362,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-10-30</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1328,17 +1372,12 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-10-30</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1353,22 +1392,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104396511</v>
+        <v>107240205</v>
       </c>
       <c r="B8" t="n">
-        <v>56395</v>
+        <v>73691</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1377,49 +1416,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6486</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Konäs, Jmt</t>
+          <t>Konäsån, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>404459.8666546694</v>
+        <v>404507.1519244571</v>
       </c>
       <c r="R8" t="n">
-        <v>7052116.960384977</v>
+        <v>7052398.455826334</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1443,7 +1474,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-10-30</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1453,17 +1484,12 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-10-30</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1478,22 +1504,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>107240199</v>
+        <v>107240151</v>
       </c>
       <c r="B9" t="n">
-        <v>78603</v>
+        <v>56395</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1502,38 +1528,43 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6464</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Konäsån, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>404600.7756870117</v>
+        <v>404450.4396007094</v>
       </c>
       <c r="R9" t="n">
-        <v>7052262.87229334</v>
+        <v>7052055.756168589</v>
       </c>
       <c r="S9" t="n">
         <v>20</v>
@@ -1576,6 +1607,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1602,10 +1638,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>107240200</v>
+        <v>107240202</v>
       </c>
       <c r="B10" t="n">
-        <v>77590</v>
+        <v>73693</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1618,21 +1654,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>283</v>
+        <v>6440</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1642,10 +1678,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>404591.3493727507</v>
+        <v>404516.1063336513</v>
       </c>
       <c r="R10" t="n">
-        <v>7052305.481577516</v>
+        <v>7052399.522973455</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1714,10 +1750,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104305615</v>
+        <v>107240201</v>
       </c>
       <c r="B11" t="n">
-        <v>56395</v>
+        <v>73507</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1726,49 +1762,41 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6428</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rostfläck</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Arthonia vinosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Leight.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Konäs, Jmt</t>
+          <t>Konäsån, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>404450.4798027966</v>
+        <v>404549.7985099602</v>
       </c>
       <c r="R11" t="n">
-        <v>7052057.091666414</v>
+        <v>7052422.121992063</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1792,7 +1820,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1802,17 +1830,12 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1827,22 +1850,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>104396513</v>
+        <v>107240204</v>
       </c>
       <c r="B12" t="n">
-        <v>56395</v>
+        <v>89410</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1855,45 +1878,37 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Konäs, Jmt</t>
+          <t>Konäsån, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>404410.1670524143</v>
+        <v>404514.3234876283</v>
       </c>
       <c r="R12" t="n">
-        <v>7052081.474972909</v>
+        <v>7052399.576612793</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1917,7 +1932,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2022-10-30</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1927,17 +1942,12 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2022-10-30</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1952,22 +1962,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Jesper Wadstein</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>107240151</v>
+        <v>107240200</v>
       </c>
       <c r="B13" t="n">
-        <v>56395</v>
+        <v>77590</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1980,39 +1990,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>283</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Konäsån, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>404450.4396007094</v>
+        <v>404591.3493727507</v>
       </c>
       <c r="R13" t="n">
-        <v>7052055.756168589</v>
+        <v>7052305.481577516</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -2055,11 +2060,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2824,7 +2824,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>107312732</v>
+        <v>107312727</v>
       </c>
       <c r="B20" t="n">
         <v>56395</v>
@@ -2862,7 +2862,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -2872,10 +2872,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>404556.6122918456</v>
+        <v>404816.6062824384</v>
       </c>
       <c r="R20" t="n">
-        <v>7051951.416123887</v>
+        <v>7052021.585110929</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>107312745</v>
+        <v>107312732</v>
       </c>
       <c r="B21" t="n">
         <v>56395</v>
@@ -2985,7 +2985,11 @@
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2993,10 +2997,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>404586.4633316425</v>
+        <v>404556.6122918456</v>
       </c>
       <c r="R21" t="n">
-        <v>7052053.892247804</v>
+        <v>7051951.416123887</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3070,7 +3074,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>107312727</v>
+        <v>107312739</v>
       </c>
       <c r="B22" t="n">
         <v>56395</v>
@@ -3108,7 +3112,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -3118,10 +3122,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>404816.6062824384</v>
+        <v>404681.0622223797</v>
       </c>
       <c r="R22" t="n">
-        <v>7052021.585110929</v>
+        <v>7052084.021887345</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3195,7 +3199,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>107312739</v>
+        <v>107312735</v>
       </c>
       <c r="B23" t="n">
         <v>56395</v>
@@ -3233,7 +3237,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
@@ -3243,10 +3247,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>404681.0622223797</v>
+        <v>404696.918969274</v>
       </c>
       <c r="R23" t="n">
-        <v>7052084.021887345</v>
+        <v>7052002.897780768</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3320,7 +3324,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>107312735</v>
+        <v>107312745</v>
       </c>
       <c r="B24" t="n">
         <v>56395</v>
@@ -3356,11 +3360,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>404696.918969274</v>
+        <v>404586.4633316425</v>
       </c>
       <c r="R24" t="n">
-        <v>7052002.897780768</v>
+        <v>7052053.892247804</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
